--- a/medicine/Pharmacie/1934_en_santé_et_médecine/1934_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1934_en_santé_et_médecine/1934_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1934_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1934_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1934 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1934_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1934_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Europe
-En Hongrie, Ladislas Joseph Meduna (1896-1964) commence ses expériences sur la convulsothérapie au cardiazol[1].
+En Hongrie, Ladislas Joseph Meduna (1896-1964) commence ses expériences sur la convulsothérapie au cardiazol.
 États-Unis
 À Harvard, Gregory Goodwin Pincus, futur inventeur de la pilule, réussit une fécondation in vitro chez le lapin.</t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1934_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1934_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Marius Piery, Traité de climatologie biologique et médicale, Paris, Masson, 1934[2]. Ouvrage en trois volumes sur les cures thermales et climatiques dans le monde[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Marius Piery, Traité de climatologie biologique et médicale, Paris, Masson, 1934. Ouvrage en trois volumes sur les cures thermales et climatiques dans le monde.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1934_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1934_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Nobel de physiologie ou médecine : George Hoyt Whipple (1878-1976), George Richards Minot (1885-1950), William Parry Murphy (1892-1987).
 Médailles de la Royal Society
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1934_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1934_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>11 avril : Claude Kordon (mort en 2008), neuroendocrinologue français.
 21 mai : Bengt Ingemar Samuelsson (90 ans), biochimiste suédois, prix Nobel de physiologie ou médecine en 1982.
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1934_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1934_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>9 janvier : Hakaru Hashimoto (né en 1881), médecin japonais ayant décrit le premier la thyroïdite de Hashimoto.
 10 juin : Georg Groddeck (né en 1866), psychanalyste allemand (Le Livre du ça).
